--- a/DebSec Kft. ÁRAJÁNLAT.xlsx
+++ b/DebSec Kft. ÁRAJÁNLAT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df3f1543738794d3/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIZSGAREMEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{3E184C23-1DEC-408F-9C64-825BE12E6EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23373A5-84C9-4E8B-9928-D0B66A976BF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7BD14-2D62-44E9-BE3E-646F760186C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9F77C47-47D0-46B6-8669-85C01BE4DCC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Cisco Catalyst 8200-1N-4T + 10G NIM</t>
   </si>
@@ -119,14 +119,44 @@
     <t>570.000 Ft</t>
   </si>
   <si>
-    <t>14.145.000 Ft</t>
+    <t>Windows Server 2022 Standard (16-core)</t>
+  </si>
+  <si>
+    <t>310 000 Ft</t>
+  </si>
+  <si>
+    <t>Windows Server 2022 User CAL</t>
+  </si>
+  <si>
+    <t>87 000 Ft</t>
+  </si>
+  <si>
+    <t>Bérelt vonal havonta:</t>
+  </si>
+  <si>
+    <t>750 000 Ft</t>
+  </si>
+  <si>
+    <t>Munkadíj:</t>
+  </si>
+  <si>
+    <t>Kábelek:</t>
+  </si>
+  <si>
+    <t>108 000 Ft</t>
+  </si>
+  <si>
+    <t>4 600 000 Ft</t>
+  </si>
+  <si>
+    <t>20 000 000 Ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,14 +179,91 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -220,16 +327,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -250,22 +357,38 @@
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -281,10 +404,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA53B45E-E886-4131-B3AC-AB3F69CA43FD}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,145 +735,197 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12" t="s">
-        <v>27</v>
+      <c r="E15" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DebSec Kft. ÁRAJÁNLAT.xlsx
+++ b/DebSec Kft. ÁRAJÁNLAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIZSGAREMEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C7BD14-2D62-44E9-BE3E-646F760186C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F583FF78-AD41-4275-A5F3-16449562A6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9F77C47-47D0-46B6-8669-85C01BE4DCC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Cisco Catalyst 8200-1N-4T + 10G NIM</t>
   </si>
@@ -146,10 +146,16 @@
     <t>108 000 Ft</t>
   </si>
   <si>
-    <t>4 600 000 Ft</t>
-  </si>
-  <si>
-    <t>20 000 000 Ft</t>
+    <t>30 000 000 Ft</t>
+  </si>
+  <si>
+    <t>Szerver:</t>
+  </si>
+  <si>
+    <t>7 000 000 Ft</t>
+  </si>
+  <si>
+    <t>7 600 000 Ft</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -340,11 +346,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -389,6 +406,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -910,14 +929,25 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17" t="s">
-        <v>36</v>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
@@ -925,7 +955,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
